--- a/es/es-verb.xlsx
+++ b/es/es-verb.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29080" windowHeight="13940"/>
+    <workbookView windowWidth="29080" windowHeight="13940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="être" sheetId="2" r:id="rId1"/>
@@ -33,261 +33,261 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>Spanish</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>arriver</t>
-  </si>
-  <si>
-    <t>partir</t>
-  </si>
-  <si>
-    <t>descendre</t>
-  </si>
-  <si>
-    <t>monter</t>
-  </si>
-  <si>
-    <t>venir</t>
-  </si>
-  <si>
-    <t>tomber</t>
-  </si>
-  <si>
-    <t>entrer</t>
-  </si>
-  <si>
-    <t>sortir</t>
-  </si>
-  <si>
-    <t>naître</t>
-  </si>
-  <si>
-    <t>morir</t>
+    <t>French</t>
   </si>
   <si>
     <t>comprar</t>
   </si>
   <si>
+    <t>acheter</t>
+  </si>
+  <si>
     <t>vender</t>
   </si>
   <si>
+    <t>vendre</t>
+  </si>
+  <si>
     <t>abierto</t>
   </si>
   <si>
+    <t>ouvrir</t>
+  </si>
+  <si>
     <t>cerca</t>
   </si>
   <si>
+    <t>fermer</t>
+  </si>
+  <si>
     <t>Iluminar</t>
   </si>
   <si>
+    <t>allumer</t>
+  </si>
+  <si>
     <t>apagar</t>
   </si>
   <si>
+    <t>éteindre</t>
+  </si>
+  <si>
     <t>gustar</t>
   </si>
   <si>
+    <t>aimer</t>
+  </si>
+  <si>
     <t>odiar</t>
   </si>
   <si>
+    <t>détester</t>
+  </si>
+  <si>
     <t>poner</t>
   </si>
   <si>
+    <t>mettre</t>
+  </si>
+  <si>
+    <t>enlever</t>
+  </si>
+  <si>
     <t>llevar</t>
   </si>
   <si>
+    <t>emmener</t>
+  </si>
+  <si>
     <t>salir</t>
   </si>
   <si>
-    <t>French</t>
+    <t>laisser</t>
   </si>
   <si>
     <t>levantarse</t>
   </si>
   <si>
-    <t>get up</t>
+    <t>se lever</t>
   </si>
   <si>
     <t>dormirse</t>
   </si>
   <si>
-    <t>fall asleep</t>
+    <t>s'endormir</t>
   </si>
   <si>
     <t>dormir</t>
   </si>
   <si>
-    <t>sleep</t>
-  </si>
-  <si>
     <t>despertarse</t>
   </si>
   <si>
-    <t>wake up</t>
+    <t>se réveiller</t>
   </si>
   <si>
     <t>comer</t>
   </si>
   <si>
-    <t>eat</t>
+    <t>manger</t>
   </si>
   <si>
     <t>beber</t>
   </si>
   <si>
-    <t>drink</t>
+    <t>boire</t>
   </si>
   <si>
     <t>irse a la cama</t>
   </si>
   <si>
-    <t>go bed</t>
+    <t>coucher</t>
   </si>
   <si>
     <t>limpiarse</t>
   </si>
   <si>
-    <t>clean</t>
+    <t>nettoyer</t>
   </si>
   <si>
     <t>admitir</t>
   </si>
   <si>
-    <t>admit</t>
+    <t>avouer</t>
   </si>
   <si>
     <t>consentir</t>
   </si>
   <si>
-    <t>consent</t>
-  </si>
-  <si>
     <t>llorar</t>
   </si>
   <si>
-    <t>cry</t>
+    <t>crier</t>
   </si>
   <si>
     <t>discutir</t>
   </si>
   <si>
-    <t>discuss</t>
+    <t>discuter</t>
   </si>
   <si>
     <t>negar</t>
   </si>
   <si>
-    <t>deny</t>
+    <t>nier</t>
   </si>
   <si>
     <t>expresar</t>
   </si>
   <si>
-    <t>express</t>
+    <t>exprimer</t>
   </si>
   <si>
     <t>reír</t>
   </si>
   <si>
-    <t>laugh</t>
+    <t>rire</t>
   </si>
   <si>
     <t>ordenar</t>
   </si>
   <si>
-    <t>order</t>
+    <t>ordonner</t>
   </si>
   <si>
     <t>mentir</t>
   </si>
   <si>
-    <t>lie</t>
-  </si>
-  <si>
     <t>proponer</t>
   </si>
   <si>
-    <t>propose</t>
+    <t>proposer</t>
   </si>
   <si>
     <t>persuadir</t>
   </si>
   <si>
-    <t>persuade</t>
+    <t>convaincre</t>
   </si>
   <si>
     <t>responder</t>
   </si>
   <si>
-    <t>response</t>
+    <t>répondre</t>
   </si>
   <si>
     <t>decir</t>
   </si>
   <si>
-    <t>say</t>
+    <t>dire</t>
   </si>
   <si>
     <t>sugerir</t>
   </si>
   <si>
-    <t>suggest</t>
+    <t>suggérer</t>
   </si>
   <si>
     <t>sonreír</t>
   </si>
   <si>
-    <t>smile</t>
+    <t>sourire</t>
   </si>
   <si>
     <t>confesar</t>
   </si>
   <si>
-    <t>confess</t>
+    <t>confesser</t>
   </si>
   <si>
     <t>hablar</t>
   </si>
   <si>
-    <t>speak</t>
-  </si>
-  <si>
-    <t>weep</t>
+    <t>parler</t>
+  </si>
+  <si>
+    <t>pleurer</t>
   </si>
   <si>
     <t>caminar</t>
   </si>
   <si>
-    <t>walk</t>
+    <t>marcher</t>
   </si>
   <si>
     <t>danzar</t>
   </si>
   <si>
-    <t>dance</t>
+    <t>danser</t>
   </si>
   <si>
     <t>saltar</t>
   </si>
   <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>retroceder</t>
-  </si>
-  <si>
-    <t>retrocede</t>
+    <t>sauter</t>
+  </si>
+  <si>
+    <t>avanzar</t>
+  </si>
+  <si>
+    <t>avancer</t>
+  </si>
+  <si>
+    <t>recular</t>
+  </si>
+  <si>
+    <t>reculer</t>
   </si>
   <si>
     <t>correr</t>
   </si>
   <si>
-    <t>run</t>
+    <t>courir</t>
   </si>
 </sst>
 </file>
@@ -910,7 +910,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -918,6 +918,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1459,65 +1462,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="213" zoomScaleNormal="213" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="10.2307692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="2" spans="2:2">
+      <c r="B2" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1531,7 +1489,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1553,56 +1511,86 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1617,7 +1605,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="227" zoomScaleNormal="227" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -1628,13 +1616,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1642,23 +1630,23 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -1716,7 +1704,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1758,121 +1746,121 @@
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1884,20 +1872,20 @@
       <c r="B13" s="1"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A2:B11">
@@ -1914,7 +1902,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="182" zoomScaleNormal="182" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1939,49 +1927,53 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1994,8 +1986,8 @@
   <sheetPr/>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+    <sheetView tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
@@ -2026,7 +2018,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="3"/>
